--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema5a-Plxnb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema5a-Plxnb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Sema5a</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4898806666666667</v>
+        <v>0.2075446666666666</v>
       </c>
       <c r="H2">
-        <v>1.469642</v>
+        <v>0.6226339999999999</v>
       </c>
       <c r="I2">
-        <v>0.01965582386814743</v>
+        <v>0.01336584681749163</v>
       </c>
       <c r="J2">
-        <v>0.0231944974426651</v>
+        <v>0.01405330443738086</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2951616666666667</v>
+        <v>0.06744433333333334</v>
       </c>
       <c r="N2">
-        <v>0.8854850000000001</v>
+        <v>0.202333</v>
       </c>
       <c r="O2">
-        <v>0.04824641865753033</v>
+        <v>0.02330312828312634</v>
       </c>
       <c r="P2">
-        <v>0.06350182003386919</v>
+        <v>0.02461962914503269</v>
       </c>
       <c r="Q2">
-        <v>0.1445939940411111</v>
+        <v>0.01399771168022222</v>
       </c>
       <c r="R2">
-        <v>1.30134594637</v>
+        <v>0.125979405122</v>
       </c>
       <c r="S2">
-        <v>0.0009483231074013181</v>
+        <v>0.0003114660430006233</v>
       </c>
       <c r="T2">
-        <v>0.001472892802380158</v>
+        <v>0.000345987143510559</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4898806666666667</v>
+        <v>0.2075446666666666</v>
       </c>
       <c r="H3">
-        <v>1.469642</v>
+        <v>0.6226339999999999</v>
       </c>
       <c r="I3">
-        <v>0.01965582386814743</v>
+        <v>0.01336584681749163</v>
       </c>
       <c r="J3">
-        <v>0.0231944974426651</v>
+        <v>0.01405330443738086</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.564369</v>
       </c>
       <c r="O3">
-        <v>0.03075013472992963</v>
+        <v>0.06499959574572475</v>
       </c>
       <c r="P3">
-        <v>0.04047325326876764</v>
+        <v>0.06867172177031405</v>
       </c>
       <c r="Q3">
-        <v>0.09215782065533334</v>
+        <v>0.03904392532733333</v>
       </c>
       <c r="R3">
-        <v>0.829420385898</v>
+        <v>0.351395327946</v>
       </c>
       <c r="S3">
-        <v>0.0006044192321732999</v>
+        <v>0.0008687746399362377</v>
       </c>
       <c r="T3">
-        <v>0.0009387567694387678</v>
+        <v>0.0009650646122773382</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4898806666666667</v>
+        <v>0.2075446666666666</v>
       </c>
       <c r="H4">
-        <v>1.469642</v>
+        <v>0.6226339999999999</v>
       </c>
       <c r="I4">
-        <v>0.01965582386814743</v>
+        <v>0.01336584681749163</v>
       </c>
       <c r="J4">
-        <v>0.0231944974426651</v>
+        <v>0.01405330443738086</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7418906666666666</v>
+        <v>1.271161333333333</v>
       </c>
       <c r="N4">
-        <v>2.225672</v>
+        <v>3.813484</v>
       </c>
       <c r="O4">
-        <v>0.1212676703798967</v>
+        <v>0.4392071825043357</v>
       </c>
       <c r="P4">
-        <v>0.1596122156766311</v>
+        <v>0.4640200156697911</v>
       </c>
       <c r="Q4">
-        <v>0.3634378943804444</v>
+        <v>0.2638227552062222</v>
       </c>
       <c r="R4">
-        <v>3.270941049424</v>
+        <v>2.374404796856</v>
       </c>
       <c r="S4">
-        <v>0.002383615969887808</v>
+        <v>0.00587037592249504</v>
       </c>
       <c r="T4">
-        <v>0.00370212512832973</v>
+        <v>0.00652101454524581</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.4898806666666667</v>
+        <v>0.2075446666666666</v>
       </c>
       <c r="H5">
-        <v>1.469642</v>
+        <v>0.6226339999999999</v>
       </c>
       <c r="I5">
-        <v>0.01965582386814743</v>
+        <v>0.01336584681749163</v>
       </c>
       <c r="J5">
-        <v>0.0231944974426651</v>
+        <v>0.01405330443738086</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.409136999999999</v>
+        <v>0.464293</v>
       </c>
       <c r="N5">
-        <v>8.818273999999999</v>
+        <v>0.928586</v>
       </c>
       <c r="O5">
-        <v>0.7207069672114399</v>
+        <v>0.1604208805280045</v>
       </c>
       <c r="P5">
-        <v>0.6323951829306511</v>
+        <v>0.1129891957776009</v>
       </c>
       <c r="Q5">
-        <v>2.159950972984666</v>
+        <v>0.09636153592066665</v>
       </c>
       <c r="R5">
-        <v>12.959705837908</v>
+        <v>0.5781692155239999</v>
       </c>
       <c r="S5">
-        <v>0.01416608920805477</v>
+        <v>0.002144160915464433</v>
       </c>
       <c r="T5">
-        <v>0.01466808845323871</v>
+        <v>0.001587871566397453</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.2075446666666666</v>
+      </c>
+      <c r="H6">
+        <v>0.6226339999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.01336584681749163</v>
+      </c>
+      <c r="J6">
+        <v>0.01405330443738086</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.4898806666666667</v>
-      </c>
-      <c r="H6">
-        <v>1.469642</v>
-      </c>
-      <c r="I6">
-        <v>0.01965582386814743</v>
-      </c>
-      <c r="J6">
-        <v>0.0231944974426651</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.483482</v>
+        <v>0.9031963333333333</v>
       </c>
       <c r="N6">
-        <v>1.450446</v>
+        <v>2.709589</v>
       </c>
       <c r="O6">
-        <v>0.07902880902120334</v>
+        <v>0.3120692129388088</v>
       </c>
       <c r="P6">
-        <v>0.1040175280900811</v>
+        <v>0.3296994376372612</v>
       </c>
       <c r="Q6">
-        <v>0.2368484844813334</v>
+        <v>0.1874535819362222</v>
       </c>
       <c r="R6">
-        <v>2.131636360332001</v>
+        <v>1.687082237426</v>
       </c>
       <c r="S6">
-        <v>0.001553376350630233</v>
+        <v>0.004171069296595296</v>
       </c>
       <c r="T6">
-        <v>0.00241263428927773</v>
+        <v>0.004633366569949697</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,40 +856,40 @@
         <v>39.077793</v>
       </c>
       <c r="I7">
-        <v>0.5226485200912362</v>
+        <v>0.8388680913725347</v>
       </c>
       <c r="J7">
-        <v>0.6167418798615554</v>
+        <v>0.8820143483490313</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2951616666666667</v>
+        <v>0.06744433333333334</v>
       </c>
       <c r="N7">
-        <v>0.8854850000000001</v>
+        <v>0.202333</v>
       </c>
       <c r="O7">
-        <v>0.04824641865753033</v>
+        <v>0.02330312828312634</v>
       </c>
       <c r="P7">
-        <v>0.06350182003386919</v>
+        <v>0.02461962914503269</v>
       </c>
       <c r="Q7">
-        <v>3.844755503845001</v>
+        <v>0.8785252323410001</v>
       </c>
       <c r="R7">
-        <v>34.602799534605</v>
+        <v>7.906727091069</v>
       </c>
       <c r="S7">
-        <v>0.02521591931106043</v>
+        <v>0.01954825074587552</v>
       </c>
       <c r="T7">
-        <v>0.03916423186231866</v>
+        <v>0.02171486615695083</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>39.077793</v>
       </c>
       <c r="I8">
-        <v>0.5226485200912362</v>
+        <v>0.8388680913725347</v>
       </c>
       <c r="J8">
-        <v>0.6167418798615554</v>
+        <v>0.8820143483490313</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,10 +936,10 @@
         <v>0.564369</v>
       </c>
       <c r="O8">
-        <v>0.03075013472992963</v>
+        <v>0.06499959574572475</v>
       </c>
       <c r="P8">
-        <v>0.04047325326876764</v>
+        <v>0.06867172177031405</v>
       </c>
       <c r="Q8">
         <v>2.450477217513</v>
@@ -948,10 +948,10 @@
         <v>22.054294957617</v>
       </c>
       <c r="S8">
-        <v>0.01607151240920384</v>
+        <v>0.05452608682320245</v>
       </c>
       <c r="T8">
-        <v>0.0249615503050926</v>
+        <v>0.06056944392724953</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>39.077793</v>
       </c>
       <c r="I9">
-        <v>0.5226485200912362</v>
+        <v>0.8388680913725347</v>
       </c>
       <c r="J9">
-        <v>0.6167418798615554</v>
+        <v>0.8820143483490313</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7418906666666666</v>
+        <v>1.271161333333333</v>
       </c>
       <c r="N9">
-        <v>2.225672</v>
+        <v>3.813484</v>
       </c>
       <c r="O9">
-        <v>0.1212676703798967</v>
+        <v>0.4392071825043357</v>
       </c>
       <c r="P9">
-        <v>0.1596122156766311</v>
+        <v>0.4640200156697911</v>
       </c>
       <c r="Q9">
-        <v>9.663816633543998</v>
+        <v>16.558059817868</v>
       </c>
       <c r="R9">
-        <v>86.97434970189599</v>
+        <v>149.022538360812</v>
       </c>
       <c r="S9">
-        <v>0.06338036845896484</v>
+        <v>0.3684368909045206</v>
       </c>
       <c r="T9">
-        <v>0.09843953794527348</v>
+        <v>0.409272311741898</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>39.077793</v>
       </c>
       <c r="I10">
-        <v>0.5226485200912362</v>
+        <v>0.8388680913725347</v>
       </c>
       <c r="J10">
-        <v>0.6167418798615554</v>
+        <v>0.8820143483490313</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.409136999999999</v>
+        <v>0.464293</v>
       </c>
       <c r="N10">
-        <v>8.818273999999999</v>
+        <v>0.928586</v>
       </c>
       <c r="O10">
-        <v>0.7207069672114399</v>
+        <v>0.1604208805280045</v>
       </c>
       <c r="P10">
-        <v>0.6323951829306511</v>
+        <v>0.1129891957776009</v>
       </c>
       <c r="Q10">
-        <v>57.43311433154699</v>
+        <v>6.047848581783001</v>
       </c>
       <c r="R10">
-        <v>344.5986859892819</v>
+        <v>36.287091490698</v>
       </c>
       <c r="S10">
-        <v>0.3766764298325022</v>
+        <v>0.1345719578648285</v>
       </c>
       <c r="T10">
-        <v>0.3900245939360419</v>
+        <v>0.09965809188426178</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,40 +1104,40 @@
         <v>39.077793</v>
       </c>
       <c r="I11">
-        <v>0.5226485200912362</v>
+        <v>0.8388680913725347</v>
       </c>
       <c r="J11">
-        <v>0.6167418798615554</v>
+        <v>0.8820143483490313</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.483482</v>
+        <v>0.9031963333333333</v>
       </c>
       <c r="N11">
-        <v>1.450446</v>
+        <v>2.709589</v>
       </c>
       <c r="O11">
-        <v>0.07902880902120334</v>
+        <v>0.3120692129388088</v>
       </c>
       <c r="P11">
-        <v>0.1040175280900811</v>
+        <v>0.3296994376372612</v>
       </c>
       <c r="Q11">
-        <v>6.297803171742</v>
+        <v>11.764973117453</v>
       </c>
       <c r="R11">
-        <v>56.68022854567801</v>
+        <v>105.884758057077</v>
       </c>
       <c r="S11">
-        <v>0.04130429007950486</v>
+        <v>0.2617849050341076</v>
       </c>
       <c r="T11">
-        <v>0.06415196581282873</v>
+        <v>0.290799634638671</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.4071155</v>
+        <v>2.2787875</v>
       </c>
       <c r="H12">
-        <v>22.814231</v>
+        <v>4.557575</v>
       </c>
       <c r="I12">
-        <v>0.4576956560406163</v>
+        <v>0.146753588727638</v>
       </c>
       <c r="J12">
-        <v>0.3600636226957795</v>
+        <v>0.1028677986926446</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.2951616666666667</v>
+        <v>0.06744433333333334</v>
       </c>
       <c r="N12">
-        <v>0.8854850000000001</v>
+        <v>0.202333</v>
       </c>
       <c r="O12">
-        <v>0.04824641865753033</v>
+        <v>0.02330312828312634</v>
       </c>
       <c r="P12">
-        <v>0.06350182003386919</v>
+        <v>0.02461962914503269</v>
       </c>
       <c r="Q12">
-        <v>3.366943222839167</v>
+        <v>0.1536913037458333</v>
       </c>
       <c r="R12">
-        <v>20.201659337035</v>
+        <v>0.922147822475</v>
       </c>
       <c r="S12">
-        <v>0.02208217623906858</v>
+        <v>0.003419817704129311</v>
       </c>
       <c r="T12">
-        <v>0.02286469536917037</v>
+        <v>0.002532567054778789</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.4071155</v>
+        <v>2.2787875</v>
       </c>
       <c r="H13">
-        <v>22.814231</v>
+        <v>4.557575</v>
       </c>
       <c r="I13">
-        <v>0.4576956560406163</v>
+        <v>0.146753588727638</v>
       </c>
       <c r="J13">
-        <v>0.3600636226957795</v>
+        <v>0.1028677986926446</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.564369</v>
       </c>
       <c r="O13">
-        <v>0.03075013472992963</v>
+        <v>0.06499959574572475</v>
       </c>
       <c r="P13">
-        <v>0.04047325326876764</v>
+        <v>0.06867172177031405</v>
       </c>
       <c r="Q13">
-        <v>2.1459407892065</v>
+        <v>0.4286923408625</v>
       </c>
       <c r="R13">
-        <v>12.875644735239</v>
+        <v>2.572154045175</v>
       </c>
       <c r="S13">
-        <v>0.01407420308855248</v>
+        <v>0.009538923941530816</v>
       </c>
       <c r="T13">
-        <v>0.01457294619423628</v>
+        <v>0.007064108850945965</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.4071155</v>
+        <v>2.2787875</v>
       </c>
       <c r="H14">
-        <v>22.814231</v>
+        <v>4.557575</v>
       </c>
       <c r="I14">
-        <v>0.4576956560406163</v>
+        <v>0.146753588727638</v>
       </c>
       <c r="J14">
-        <v>0.3600636226957795</v>
+        <v>0.1028677986926446</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7418906666666666</v>
+        <v>1.271161333333333</v>
       </c>
       <c r="N14">
-        <v>2.225672</v>
+        <v>3.813484</v>
       </c>
       <c r="O14">
-        <v>0.1212676703798967</v>
+        <v>0.4392071825043357</v>
       </c>
       <c r="P14">
-        <v>0.1596122156766311</v>
+        <v>0.4640200156697911</v>
       </c>
       <c r="Q14">
-        <v>8.462832523038665</v>
+        <v>2.896706556883333</v>
       </c>
       <c r="R14">
-        <v>50.776995138232</v>
+        <v>17.3802393413</v>
       </c>
       <c r="S14">
-        <v>0.05550368595104404</v>
+        <v>0.06445523022746591</v>
       </c>
       <c r="T14">
-        <v>0.05747055260302788</v>
+        <v>0.04773271756127786</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.4071155</v>
+        <v>2.2787875</v>
       </c>
       <c r="H15">
-        <v>22.814231</v>
+        <v>4.557575</v>
       </c>
       <c r="I15">
-        <v>0.4576956560406163</v>
+        <v>0.146753588727638</v>
       </c>
       <c r="J15">
-        <v>0.3600636226957795</v>
+        <v>0.1028677986926446</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.409136999999999</v>
+        <v>0.464293</v>
       </c>
       <c r="N15">
-        <v>8.818273999999999</v>
+        <v>0.928586</v>
       </c>
       <c r="O15">
-        <v>0.7207069672114399</v>
+        <v>0.1604208805280045</v>
       </c>
       <c r="P15">
-        <v>0.6323951829306511</v>
+        <v>0.1129891957776009</v>
       </c>
       <c r="Q15">
-        <v>50.29553501432349</v>
+        <v>1.0580250847375</v>
       </c>
       <c r="R15">
-        <v>201.182140057294</v>
+        <v>4.23210033895</v>
       </c>
       <c r="S15">
-        <v>0.329864448170883</v>
+        <v>0.02354233992433231</v>
       </c>
       <c r="T15">
-        <v>0.2277025005413704</v>
+        <v>0.01162294984569406</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.2787875</v>
+      </c>
+      <c r="H16">
+        <v>4.557575</v>
+      </c>
+      <c r="I16">
+        <v>0.146753588727638</v>
+      </c>
+      <c r="J16">
+        <v>0.1028677986926446</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.9031963333333333</v>
+      </c>
+      <c r="N16">
+        <v>2.709589</v>
+      </c>
+      <c r="O16">
+        <v>0.3120692129388088</v>
+      </c>
+      <c r="P16">
+        <v>0.3296994376372612</v>
+      </c>
+      <c r="Q16">
+        <v>2.058192514445833</v>
+      </c>
+      <c r="R16">
+        <v>12.349155086675</v>
+      </c>
+      <c r="S16">
+        <v>0.04579727693017963</v>
+      </c>
+      <c r="T16">
+        <v>0.03391545537994792</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.01572166666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.047165</v>
+      </c>
+      <c r="I17">
+        <v>0.001012473082335678</v>
+      </c>
+      <c r="J17">
+        <v>0.001064548520943392</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.06744433333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.202333</v>
+      </c>
+      <c r="O17">
+        <v>0.02330312828312634</v>
+      </c>
+      <c r="P17">
+        <v>0.02461962914503269</v>
+      </c>
+      <c r="Q17">
+        <v>0.001060337327222222</v>
+      </c>
+      <c r="R17">
+        <v>0.009543035945</v>
+      </c>
+      <c r="S17">
+        <v>2.359379012088065E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.620878979251939E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.01572166666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.047165</v>
+      </c>
+      <c r="I18">
+        <v>0.001012473082335678</v>
+      </c>
+      <c r="J18">
+        <v>0.001064548520943392</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.188123</v>
+      </c>
+      <c r="N18">
+        <v>0.564369</v>
+      </c>
+      <c r="O18">
+        <v>0.06499959574572475</v>
+      </c>
+      <c r="P18">
+        <v>0.06867172177031405</v>
+      </c>
+      <c r="Q18">
+        <v>0.002957607098333333</v>
+      </c>
+      <c r="R18">
+        <v>0.026618463885</v>
+      </c>
+      <c r="S18">
+        <v>6.5810341055247E-05</v>
+      </c>
+      <c r="T18">
+        <v>7.310437984122398E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>11.4071155</v>
-      </c>
-      <c r="H16">
-        <v>22.814231</v>
-      </c>
-      <c r="I16">
-        <v>0.4576956560406163</v>
-      </c>
-      <c r="J16">
-        <v>0.3600636226957795</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.483482</v>
-      </c>
-      <c r="N16">
-        <v>1.450446</v>
-      </c>
-      <c r="O16">
-        <v>0.07902880902120334</v>
-      </c>
-      <c r="P16">
-        <v>0.1040175280900811</v>
-      </c>
-      <c r="Q16">
-        <v>5.515135016171</v>
-      </c>
-      <c r="R16">
-        <v>33.090810097026</v>
-      </c>
-      <c r="S16">
-        <v>0.03617114259106824</v>
-      </c>
-      <c r="T16">
-        <v>0.03745292798797459</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.01572166666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.047165</v>
+      </c>
+      <c r="I19">
+        <v>0.001012473082335678</v>
+      </c>
+      <c r="J19">
+        <v>0.001064548520943392</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.271161333333333</v>
+      </c>
+      <c r="N19">
+        <v>3.813484</v>
+      </c>
+      <c r="O19">
+        <v>0.4392071825043357</v>
+      </c>
+      <c r="P19">
+        <v>0.4640200156697911</v>
+      </c>
+      <c r="Q19">
+        <v>0.01998477476222222</v>
+      </c>
+      <c r="R19">
+        <v>0.17986297286</v>
+      </c>
+      <c r="S19">
+        <v>0.0004446854498541336</v>
+      </c>
+      <c r="T19">
+        <v>0.0004939718213694058</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.01572166666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.047165</v>
+      </c>
+      <c r="I20">
+        <v>0.001012473082335678</v>
+      </c>
+      <c r="J20">
+        <v>0.001064548520943392</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.464293</v>
+      </c>
+      <c r="N20">
+        <v>0.928586</v>
+      </c>
+      <c r="O20">
+        <v>0.1604208805280045</v>
+      </c>
+      <c r="P20">
+        <v>0.1129891957776009</v>
+      </c>
+      <c r="Q20">
+        <v>0.007299459781666666</v>
+      </c>
+      <c r="R20">
+        <v>0.04379675869</v>
+      </c>
+      <c r="S20">
+        <v>0.0001624218233791923</v>
+      </c>
+      <c r="T20">
+        <v>0.0001202824812476285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.01572166666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.047165</v>
+      </c>
+      <c r="I21">
+        <v>0.001012473082335678</v>
+      </c>
+      <c r="J21">
+        <v>0.001064548520943392</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.9031963333333333</v>
+      </c>
+      <c r="N21">
+        <v>2.709589</v>
+      </c>
+      <c r="O21">
+        <v>0.3120692129388088</v>
+      </c>
+      <c r="P21">
+        <v>0.3296994376372612</v>
+      </c>
+      <c r="Q21">
+        <v>0.01419975168722222</v>
+      </c>
+      <c r="R21">
+        <v>0.127797765185</v>
+      </c>
+      <c r="S21">
+        <v>0.0003159616779262249</v>
+      </c>
+      <c r="T21">
+        <v>0.0003509810486926147</v>
       </c>
     </row>
   </sheetData>
